--- a/tuto_selgain/Data_Durum_students.xlsx
+++ b/tuto_selgain/Data_Durum_students.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Vorlesung\Selectiongain\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7AF1B7-2351-4F1E-96C6-584805F3BC05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="124">
   <si>
     <t>All costs are in yield plot equivalents, e.g. 1 yield plot = 30€</t>
   </si>
@@ -44,15 +45,6 @@
     <t>Total annual budget of the breeding program including all costs for production of lines, lab, field rent, staff,…</t>
   </si>
   <si>
-    <t>Cost to produce 1 DH line with enough seed for nursery observation and multiplication of seeds</t>
-  </si>
-  <si>
-    <t>Cost per nursery row for growing DH line and all observations like heading, plant height diseases</t>
-  </si>
-  <si>
-    <t>Cost for whole genome genotyping for 1 DH line</t>
-  </si>
-  <si>
     <t>Variance components (from Rapp et al. 2018)</t>
   </si>
   <si>
@@ -74,15 +66,9 @@
     <t>Further variables</t>
   </si>
   <si>
-    <t>prediction ability from genomic selection for grain yield across breeding cycles</t>
-  </si>
-  <si>
     <t>0,1; 0,2; 0,3</t>
   </si>
   <si>
-    <t xml:space="preserve">selection intensity in the nursery, e.g. 0.2 = 20% of lines are kept for furtehr yield trials </t>
-  </si>
-  <si>
     <t>Minimum number of test locations available in first yield trial series (L2)</t>
   </si>
   <si>
@@ -128,9 +114,6 @@
     <t>First yield test</t>
   </si>
   <si>
-    <t>Second yield test</t>
-  </si>
-  <si>
     <t>Breeding scheme phenotypic, DH fast</t>
   </si>
   <si>
@@ -197,9 +180,6 @@
     <t>F4 + nursery</t>
   </si>
   <si>
-    <t>1; 3; 10</t>
-  </si>
-  <si>
     <t>750; 1000; 1250</t>
   </si>
   <si>
@@ -212,9 +192,6 @@
     <t>5000; 10000</t>
   </si>
   <si>
-    <t>No of finally selected lines</t>
-  </si>
-  <si>
     <t>Nf</t>
   </si>
   <si>
@@ -275,9 +252,6 @@
     <t>3; 4</t>
   </si>
   <si>
-    <t>Cost to produce 1 line with enough seed for nursery observation and multiplication of seeds</t>
-  </si>
-  <si>
     <t>line prod</t>
   </si>
   <si>
@@ -300,13 +274,231 @@
   </si>
   <si>
     <t>nursery + GS</t>
+  </si>
+  <si>
+    <r>
+      <t>Cost to produce 1 line with enough seed for nursery observation and multiplication of seeds; in R cost.nursery(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cost for whole genome genotyping for 1 DH line; in R costTest(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ,)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cost per nursery row for growing DH line and all observations like heading, plant height diseases; in R cost.nursery(,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>prediction ability from genomic selection for grain yield across breeding cycles; in R maseff =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selection intensity in the nursery, e.g. 0.2 = 20% of lines are kept for further yield trials; in R alpha.nursery = </t>
+  </si>
+  <si>
+    <t>No of finally selected lines; in R: Nf =</t>
+  </si>
+  <si>
+    <t>Budget 5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run GS </t>
+  </si>
+  <si>
+    <t>Variance components Option 1</t>
+  </si>
+  <si>
+    <t>Scheme 1</t>
+  </si>
+  <si>
+    <t>Scheme 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run  </t>
+  </si>
+  <si>
+    <t>Budget 10000</t>
+  </si>
+  <si>
+    <t>Variance components Option 2</t>
+  </si>
+  <si>
+    <t>Time left?</t>
+  </si>
+  <si>
+    <t>run all again for Number of Replications R1=R2=2 instead fo =1</t>
+  </si>
+  <si>
+    <r>
+      <t>Cost for whole genome genotyping for 1 DH line; in R costTest(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ,)</t>
+    </r>
+  </si>
+  <si>
+    <t>0,1; 0,2; 0,3; 0,4</t>
+  </si>
+  <si>
+    <t>0,1; 0,2; 0,3; 0.4</t>
+  </si>
+  <si>
+    <t>What to do in R? --&gt; 20 runs</t>
+  </si>
+  <si>
+    <t>make a loop (for GS i  in 1:4 --&gt; maseff = 0.1*i)</t>
+  </si>
+  <si>
+    <t>Budget 5000 - DH = 3</t>
+  </si>
+  <si>
+    <t>Budget 5000 - DH = 4</t>
+  </si>
+  <si>
+    <t>Budget 10000, DH = 3</t>
+  </si>
+  <si>
+    <t>Budget 10000, DH = 4</t>
+  </si>
+  <si>
+    <t>What to do in R? --&gt; 40 runs</t>
+  </si>
+  <si>
+    <t>Budget = 750</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>Cost GS 1</t>
+  </si>
+  <si>
+    <t>run GS maseff</t>
+  </si>
+  <si>
+    <t>Cost GS 3</t>
+  </si>
+  <si>
+    <t>Cost GS 10</t>
+  </si>
+  <si>
+    <t>Budget = 1000</t>
+  </si>
+  <si>
+    <t>Budget = 1250</t>
+  </si>
+  <si>
+    <t>What to do in R? --&gt; 36 runs</t>
+  </si>
+  <si>
+    <t>make a loop (for GS i  in 1:3 --&gt; maseff = 0.1*i)</t>
+  </si>
+  <si>
+    <t>Time left? Make variance components Option 2</t>
+  </si>
+  <si>
+    <t>DH nursery</t>
+  </si>
+  <si>
+    <t>1,5; 3; 10</t>
+  </si>
+  <si>
+    <t>divide absolute selection gain by years required to finish 1 breeding cycle</t>
+  </si>
+  <si>
+    <t>in Gsrapid use this number as maximum locations as GS has replaced first yield test</t>
+  </si>
+  <si>
+    <t>Final yield test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +561,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,6 +603,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -682,11 +883,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +916,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,7 +929,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4">
         <v>0.3</v>
@@ -736,7 +937,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B7" s="4">
         <v>1.5</v>
@@ -747,7 +948,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>2</v>
@@ -758,7 +959,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4">
         <v>0.11</v>
@@ -769,18 +970,18 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4">
         <v>0.22</v>
       </c>
       <c r="C11" s="4">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -791,7 +992,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -802,7 +1003,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4">
         <v>0.2</v>
@@ -813,7 +1014,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -828,23 +1029,23 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4">
         <v>0.2</v>
@@ -857,7 +1058,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4">
         <v>2</v>
@@ -866,7 +1067,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B23" s="4">
         <v>4</v>
@@ -875,7 +1076,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
@@ -884,16 +1085,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B25" s="4">
         <v>8</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -902,7 +1105,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B27" s="4">
         <v>5</v>
@@ -914,7 +1117,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4"/>
     </row>
@@ -923,64 +1126,64 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -988,71 +1191,299 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,20 +1512,20 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4">
         <v>0.3</v>
@@ -1102,7 +1533,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B7" s="4">
         <v>1.5</v>
@@ -1113,7 +1544,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>2</v>
@@ -1124,7 +1555,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4">
         <v>0.11</v>
@@ -1135,18 +1566,18 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4">
         <v>0.22</v>
       </c>
       <c r="C11" s="4">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -1157,7 +1588,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -1168,7 +1599,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4">
         <v>0.2</v>
@@ -1179,7 +1610,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1194,23 +1625,23 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4">
         <v>0.2</v>
@@ -1223,7 +1654,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4">
         <v>2</v>
@@ -1232,7 +1663,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B23" s="4">
         <v>4</v>
@@ -1241,7 +1672,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
@@ -1250,16 +1681,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B25" s="4">
         <v>8</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -1268,7 +1701,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B27" s="4">
         <v>5</v>
@@ -1284,7 +1717,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B30" s="4"/>
     </row>
@@ -1293,56 +1726,56 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B32" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,47 +1783,478 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>32</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D104">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>92</v>
+      </c>
+      <c r="D105">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1400,17 +2264,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1433,12 +2298,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1446,7 +2311,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4">
         <v>0.3</v>
@@ -1454,15 +2319,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1473,7 +2338,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
@@ -1482,7 +2347,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4">
         <v>0.11</v>
@@ -1493,18 +2358,18 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4">
         <v>0.22</v>
       </c>
       <c r="C12" s="4">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -1515,7 +2380,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -1526,7 +2391,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4">
         <v>0.2</v>
@@ -1537,7 +2402,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1552,23 +2417,23 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B21" s="4">
         <v>0.2</v>
@@ -1581,7 +2446,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -1590,7 +2455,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
@@ -1599,7 +2464,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -1608,16 +2473,18 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4">
         <v>4</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B27" s="4">
         <v>2</v>
@@ -1625,152 +2492,503 @@
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="6"/>
+      <c r="A32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="6"/>
-    </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>111</v>
+      </c>
+      <c r="D96">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1778,11 +2996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,61 +3022,67 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" t="s">
-        <v>75</v>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>